--- a/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/V path/Antenna_1/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>136.011060610463</v>
       </c>
       <c r="H30" t="n">
-        <v>65.08795183320021</v>
+        <v>65.08795183320024</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>108.6114267793353</v>
       </c>
       <c r="H36" t="n">
-        <v>72.96302890932823</v>
+        <v>72.96302890932826</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>197.9315557613125</v>
+        <v>197.9315557613123</v>
       </c>
       <c r="H53" t="n">
-        <v>40.81365641471</v>
+        <v>40.81365641470994</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>179.088642970366</v>
+        <v>179.0886429703664</v>
       </c>
       <c r="H54" t="n">
-        <v>42.170990194504</v>
+        <v>42.17099019450414</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>201.2759149007707</v>
+        <v>201.2759149007709</v>
       </c>
       <c r="H55" t="n">
-        <v>43.98327348562202</v>
+        <v>43.98327348562211</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>187.5269372836302</v>
+        <v>187.52693728363</v>
       </c>
       <c r="H59" t="n">
-        <v>32.77239653402868</v>
+        <v>32.77239653402859</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>209.9809029410833</v>
+        <v>209.9809029410837</v>
       </c>
       <c r="H60" t="n">
-        <v>29.09426828004229</v>
+        <v>29.09426828004246</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>192.8848097687804</v>
+        <v>192.8848097687806</v>
       </c>
       <c r="H61" t="n">
-        <v>30.42815520375242</v>
+        <v>30.42815520375251</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>114.7673016335286</v>
+        <v>114.7673016335288</v>
       </c>
       <c r="H62" t="n">
-        <v>64.84659541631881</v>
+        <v>64.84659541631889</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>66.08154033152424</v>
+        <v>66.08154033152401</v>
       </c>
       <c r="H65" t="n">
-        <v>88.10129442772109</v>
+        <v>88.10129442772106</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>199.2045557753433</v>
+        <v>199.2045557753437</v>
       </c>
       <c r="H66" t="n">
-        <v>77.38234879012855</v>
+        <v>77.38234879012866</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>194.061688772719</v>
+        <v>194.0616887727192</v>
       </c>
       <c r="H67" t="n">
-        <v>94.90297217192015</v>
+        <v>94.90297217192024</v>
       </c>
     </row>
     <row r="68">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>97.1980250956904</v>
+        <v>97.19802509569061</v>
       </c>
       <c r="H68" t="n">
         <v>107.7093502430416</v>
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>103.582735849828</v>
+        <v>103.5827358498278</v>
       </c>
       <c r="H71" t="n">
-        <v>156.2722017717482</v>
+        <v>156.272201771748</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>162.0890219535372</v>
+        <v>162.0890219535375</v>
       </c>
       <c r="H72" t="n">
-        <v>151.6523198546001</v>
+        <v>151.6523198546003</v>
       </c>
     </row>
     <row r="73">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>71.94633636432032</v>
+        <v>71.9463363643205</v>
       </c>
       <c r="H73" t="n">
         <v>140.4245756344718</v>
@@ -2658,7 +2658,7 @@
         <v>71.76505325131463</v>
       </c>
       <c r="H74" t="n">
-        <v>99.42741411737703</v>
+        <v>99.42741411737704</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>91.90540227070048</v>
+        <v>91.90540227070034</v>
       </c>
       <c r="H75" t="n">
-        <v>160.2005678039449</v>
+        <v>160.2005678039448</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>104.7957111428534</v>
+        <v>104.7957111428536</v>
       </c>
       <c r="H76" t="n">
-        <v>169.7021492019734</v>
+        <v>169.7021492019736</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>78.1795167159022</v>
+        <v>78.17951671590198</v>
       </c>
       <c r="H78" t="n">
-        <v>58.48141440730535</v>
+        <v>58.48141440730531</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>211.1784810325504</v>
+        <v>211.1784810325501</v>
       </c>
       <c r="H79" t="n">
-        <v>27.85469411022093</v>
+        <v>27.8546941102208</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>172.2396928865062</v>
+        <v>172.2396928865064</v>
       </c>
       <c r="H81" t="n">
-        <v>30.50922905958784</v>
+        <v>30.50922905958794</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>113.5613616105832</v>
+        <v>113.561361610583</v>
       </c>
       <c r="H82" t="n">
-        <v>72.51011523363017</v>
+        <v>72.51011523363012</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>155.5837955312784</v>
+        <v>155.5837955312782</v>
       </c>
       <c r="H83" t="n">
-        <v>38.1617113364386</v>
+        <v>38.16171133643849</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>187.2445918614743</v>
+        <v>187.2445918614745</v>
       </c>
       <c r="H84" t="n">
-        <v>28.75811067212425</v>
+        <v>28.75811067212434</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>75.37792240644845</v>
+        <v>75.37792240644889</v>
       </c>
       <c r="H85" t="n">
-        <v>54.65813496675162</v>
+        <v>54.65813496675171</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>224.340658685702</v>
+        <v>224.3406586857018</v>
       </c>
       <c r="H87" t="n">
-        <v>35.52565834230037</v>
+        <v>35.5256583423003</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>229.2041395515942</v>
+        <v>229.204139551594</v>
       </c>
       <c r="H88" t="n">
-        <v>48.61056523283077</v>
+        <v>48.61056523283072</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>227.8552246822427</v>
+        <v>227.8552246822429</v>
       </c>
       <c r="H89" t="n">
-        <v>73.07280631029218</v>
+        <v>73.07280631029226</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>203.1356850159613</v>
+        <v>203.1356850159611</v>
       </c>
       <c r="H90" t="n">
-        <v>40.86755752546336</v>
+        <v>40.8675575254633</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>93.14794038112358</v>
+        <v>93.14794038112402</v>
       </c>
       <c r="H91" t="n">
-        <v>59.5540991642809</v>
+        <v>59.55409916428098</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>166.2759769261998</v>
+        <v>166.2759769262002</v>
       </c>
       <c r="H92" t="n">
-        <v>70.52124993442359</v>
+        <v>70.52124993442374</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>216.0895024646729</v>
+        <v>216.0895024646731</v>
       </c>
       <c r="H93" t="n">
-        <v>56.39413700243386</v>
+        <v>56.39413700243393</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>64.28343059202047</v>
+        <v>64.28343059202012</v>
       </c>
       <c r="H94" t="n">
-        <v>117.958565537842</v>
+        <v>117.9585655378419</v>
       </c>
     </row>
     <row r="95">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>17.88718342008673</v>
+        <v>17.88718342008718</v>
       </c>
       <c r="H95" t="n">
         <v>115.6485036024067</v>
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>85.2085602186085</v>
+        <v>85.20856021860828</v>
       </c>
       <c r="H97" t="n">
-        <v>93.2136028041707</v>
+        <v>93.21360280417066</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>46.56431846137088</v>
+        <v>46.56431846137066</v>
       </c>
       <c r="H98" t="n">
-        <v>97.0870923341232</v>
+        <v>97.08709233412318</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>115.8076931073365</v>
+        <v>115.8076931073368</v>
       </c>
       <c r="H99" t="n">
-        <v>134.0796137946802</v>
+        <v>134.0796137946805</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>-47.173361586841</v>
+        <v>-47.17336158684078</v>
       </c>
       <c r="H101" t="n">
-        <v>108.0123399915699</v>
+        <v>108.01233999157</v>
       </c>
     </row>
   </sheetData>
